--- a/filename.xlsx
+++ b/filename.xlsx
@@ -13,7 +13,13 @@
     <sheet name="Calculus" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Statistics" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Algebra'!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trigonometry'!$A$1:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Geometry'!$A$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Calculus'!$A$1:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statistics'!$A$1:$D$39</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -1316,6 +1322,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D41"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2121,6 +2128,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2906,6 +2914,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D35"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3671,6 +3680,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D34"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4536,6 +4546,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D39"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>